--- a/data/raw_data/Survey_Table.xlsx
+++ b/data/raw_data/Survey_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\el_salvador_owls\access_outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maedward\Desktop\elsavadorowls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="152">
   <si>
     <t>Survey_ID</t>
   </si>
@@ -93,10 +93,10 @@
     <t>Pgarc</t>
   </si>
   <si>
-    <t>Lt. rain stopped before running transect. Heard Muyos @ several pts.&amp; saw a scorpion on path to house.  At La Pluma (1739 hrs) could hear a Ferruginous Pygmy Owl to the southeast - so far off couls not even guess distance.  A couple of drops of rain at 1800 Hrs. and the neblina has moved cown the mountain side to the passo del Imposible (bridge).  At 1808 heard a Spectacled Owl 75 meters to the east of La Pluma during light rain.  At 1809 hrs heard a Mottled Owl 500 meters east and down in elevation (lower) from La Pluma. Heard the same Mottled Owla again at 1812 hrs.  Another Mottled Owl at 1813 hrs 550 meters north on the other side of the valley of the Paseo El Imposible.  Still light rain.  At 1820 hrs. heard another Mottled Owl 900 meters to the east of La Pluma(heard thene that is further away after this one - so is not the same bird).  At 1835 hrs heard two mottled Owls 700 meters west of the bridge in falda de Paso del imposible (map drawn in field notes).  There seemed to be a lot of activity (vocalizations) with the storm and all of a sudden hardly any vocalizations.  Could see clouds and hear thunder in afternoon and no rain (heard on the radio they had a few drops of rain in San Benito in the afternoon).  The storm clouds moved through during transect and after idnight winds moved in till about 7:30 am the next morning.</t>
-  </si>
-  <si>
-    <t>Arrived at point 1 at 17:15 and no owls  vocalized in the area of La Pluma - like the did on 03/29/04 (quiet/silent).</t>
+    <t>Lt. rain stopped before running transect. Heard Muyos @ several pts.&amp; saw a scorpion on path to house.  At La Pluma (1739 hrs) could hear a Ferruginous Pygmy Owl to the SE - so far off couls not even guess distance.  A couple of drops of rain at 1800 Hrs. and the neblina has moved down the mountain side to the passo del Imposible (bridge).  At 1808 heard a Spectacled Owl 75 meters to the east of La Pluma during light rain.  At 1809 hrs heard a Mottled Owl 500 meters east and down in elevation (lower) from La Pluma. Heard the same Mottled Owl again at 1812 hrs.  Another Mottled Owl at 1813 hrs 550 meters north on the other side of the valley of the Paseo El Imposible.  Still light rain.  At 1820 hrs. heard another Mottled Owl 900 meters to the east of La Pluma (heard the one that is further away after this one - so is not the same bird).  At 1835 hrs heard two Mottled Owls 700 meters west of the bridge in falda de Paso del imposible (map drawn in field notes).  There seemed to be a lot of activity (vocalizations) with the storm and all of a sudden hardly any vocalizations.  Could see clouds and hear thunder in afternoon and no rain (heard on the radio they had a few drops of rain in San Benito in the afternoon).  The storm clouds moved through during transect and after midnight winds moved in till about 7:30 am the next morning.</t>
+  </si>
+  <si>
+    <t>Arrived at point 1 at 17:15 and no owls  vocalized in the area of La Pluma - like they did on 03/29/04 (quiet/silent).</t>
   </si>
   <si>
     <t>N1</t>
@@ -111,7 +111,7 @@
     <t>Full Moon</t>
   </si>
   <si>
-    <t>Two Yellow-naped parrots flying across river to nancuchiname (pt. 1) at 1810 hrs.  Ferruginous Pygmy Owl other side of the river at 1815 hrs (pt. 1).  Laughing Falcon other side of the river (West side) form point 1 at 1800-1900 hrs.</t>
+    <t>Two Yellow-naped parrots flying across river to Nancuchiname (pt. 1) at 1810 hrs.  Ferruginous Pygmy Owl other side of the river at 1815 hrs (pt. 1).  Laughing Falcon other side of the river (West side) from point 1 at 1800-1900 hrs.</t>
   </si>
   <si>
     <t>Ghern</t>
@@ -120,7 +120,7 @@
     <t>Jaust</t>
   </si>
   <si>
-    <t>Ferruginous Pygmy Owl on way to transect.  Laughing Falcon south of point one at 18:15 hrs.</t>
+    <t>Ferruginous Pygmy Owl on way to transect at 1715 hrs..  Laughing Falcon south of point one at 1815 hrs.</t>
   </si>
   <si>
     <t>N2</t>
@@ -135,7 +135,10 @@
     <t>Dsant</t>
   </si>
   <si>
-    <t>While walking to the firtst point in the transect saw an adult Spectacled Owl perched &amp; flew off into forest near point #3 at 1720 hrs.  Recorded Laughing Falcon.  Jose Inez Viallares (Guyurmo) also helped on the survey.  Donato = Vinado &amp; Santos = Toucan.</t>
+    <t>While walking to the first point in the transect saw an adult Spectacled Owl perched &amp; flew off into forest near point #3 at 1720 hrs.  Recorded Laughing Falcon.  Jose Inez Viallares (Guyurmo) also helped on the survey.  Donato = Vinado &amp; Santos = Toucan.</t>
+  </si>
+  <si>
+    <t>Vcamp</t>
   </si>
   <si>
     <t>Last Quarter</t>
@@ -156,10 +159,10 @@
     <t>Heard a laughing Falcon and a Pygmy Owl prior to starting transect.</t>
   </si>
   <si>
-    <t>Laughing alcon recorded at 6:00PM at point #1.  Pygmy Owl vocalizing 205 m. to the southwest at 6:09 PM.</t>
-  </si>
-  <si>
-    <t>Started recording at 5:45 PM at point one and recorded Ferrugionous Pygmy Owl, Laughing Falcon anda deer.  At 6:02 saw a racoon.</t>
+    <t>Laughing Falcon recorded at 6:00PM at point #1.  Pygmy Owl vocalizing 250 m. to the southwest at 6:09 PM.</t>
+  </si>
+  <si>
+    <t>Started recording at 5:45 PM at point one and recorded Ferrugionous Pygmy Owl, Laughing Falcon and a deer.  At 6:02 saw a racoon.</t>
   </si>
   <si>
     <t>M1</t>
@@ -171,6 +174,9 @@
     <t>Eramo</t>
   </si>
   <si>
+    <t>Silent listening survey ran</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -180,13 +186,13 @@
     <t>Jhern</t>
   </si>
   <si>
-    <t>At 6:20 PM heard a mottled owl at La Pluma and recorded it.  At 6:49 PM can hear a Mottled Owl at El Puente - on hill side - NE of guard shack.</t>
+    <t>At 6:20 PM heard a mottled owl at La Pluma and recorded it.  At 6:49 PM can hear a Mottled Owl at El Puente - on hill side - NE of guard shack. Neblina moving in at El Puente.</t>
   </si>
   <si>
     <t>Ferrug. Pygmy Owl - recorded prior to survey.</t>
   </si>
   <si>
-    <t>Heard a Fer. Pygmy Owl prior to the start of the transect (100 m. to the west).  Started raining at point 3 and could not hear owld w/ wind iand lightning/thunder.</t>
+    <t>Heard a Fer. Pygmy Owl prior to the start of the transect (100 m. to the west).  Started raining at point 3 and could not hear owld w/ wind and lightning/thunder. Ended Transect after point 3.</t>
   </si>
   <si>
     <t>At 6:53 heard a Paraque, a Laughing Falcon at 7:00 PM and Cabellas (Paraque) ar 7:58 PM.  At 8:25 PM recorded monkeys. Heard a Spectacled Owl vocalizing between points 2 and 3. Heard a Mottled Owl at 10:15 PM at about 1000m west of point N2.10.</t>
@@ -204,7 +210,7 @@
     <t>Light rain</t>
   </si>
   <si>
-    <t>Hear thunder at start and light rain.  At point 4 it was raining hard so terminated survey &amp; arrived at house at 8:30 PM.</t>
+    <t>Hear thunder at start and light rain.  At point 4 it was raining hard so terminated survey &amp; arrived at house at 8:30 PM. Arrived at Pt. &amp; it kept raining harder - looked for shelter &amp; covered w/ cape; kept raining &amp; terminated transect at point 4.</t>
   </si>
   <si>
     <t>Cristolal Ramirez</t>
@@ -234,22 +240,37 @@
     <t>Ferruginous Pygmy Owl 100 m E of pt 5@ 5:24 PM and another about 100 m E of pt 4 @ 5:30 PM. Recorded Laughing Falcon @t 6:28 PM pt. 1.</t>
   </si>
   <si>
+    <t>Ferrug. Pygmy Owl @5:32 pm East 150 meters from pt. 7.  At 6:00 pm Laughing Falcon West side of Lempa River from Pt. 2.  At 6:30 pm Laughing Falcon to East 25 meters of pt. 1.</t>
+  </si>
+  <si>
+    <t>Ferr Pygmy Owl @ 5:40 pm 100 m West of pt. 7.  Two Laughing Falconsvocalizing for 10 minutes prior to starting survey.</t>
+  </si>
+  <si>
     <t>Fredi Arnoldo</t>
   </si>
   <si>
     <t>Magana Duarte</t>
   </si>
   <si>
+    <t>No owls heard at survey points.  Heard 1/2 way between pts 3 &amp; 4 @ 7:28 PM - one single hoot similar to single hoot of a Stygian Owl.</t>
+  </si>
+  <si>
     <t>Marcello Carenza</t>
   </si>
   <si>
-    <t>Cancelled survey due to rain @ pt. 5.</t>
+    <t>No owls heard at survey points on transect.</t>
+  </si>
+  <si>
+    <t>Heavy rain</t>
+  </si>
+  <si>
+    <t>Cancelled survey due to rain @ pt. 5. Started pouring rain during broadcast at point 5 @ 7:46 pm.</t>
   </si>
   <si>
     <t>At 6:25 PM - Mottled Owl at a distance - hard to hear w/ Cicadas.</t>
   </si>
   <si>
-    <t>At Point #1:  Ferrug. Pygmy Owl vocalizing 30 M to S @ 5:59 PM. At 6:00 PM Ferrug. Pygmy Owl vocal. 50 M West on the other side of the river. At 6:08 PM Ferrug. Pygmy Owl vocal. 20 M East. At 6:16 PM Laughing Falcon vocal from other side of the river.  At 6:25 PM Ferrug. Pygmy Owl vocal. 5 M west.</t>
+    <t>At Point #1:  Ferrug. Pygmy Owl vocalizing 30 M to S @ 5:59 PM. At 6:00 PM Ferrug. Pygmy Owl vocal. 50 M West on the other side of the river. At 6:08 PM Ferrug. Pygmy Owl vocal. 20 M East. At 6:16 PM Laughing Falcon vocal from other side of the river.  At 6:25 PM Ferrug. Pygmy Owl vocal. 5 M west of point.</t>
   </si>
   <si>
     <t>Ferrug. Pygmy Owls vocalizing: A) one @ 534 PM NW 100 M; B) one @ 5:51 &amp; @ 5:53 PM NW 300 M; C) one @ 5:54 &amp; 6:13 PM S 30 M; D) one @ 5:56 PM N 100 M. Laughing Falcon vocal. @6:24 PM S 200 M.</t>
@@ -282,10 +303,10 @@
     <t>Very clear and bright out. Mottled Owl @6:32 PM SE about 1,300 M. Collared Forest Falcon in valley to S@ 6:34 PM. Muyuos to N 300 M. Two Mottled Owls vocalized softley - La Cascada @9:55 PM when passing thru toward La Fincona - not during transect time.</t>
   </si>
   <si>
-    <t>Pt. 1 6:08 PM recorded Pacific Screech Owl (#0-28). Chichara strong in foreground. Clear and stars and moon.</t>
-  </si>
-  <si>
-    <t>Laughing Falcon recorded @6:25 PM. La Pluma could hear Mottled Owl in background @ 6:28 (tape 180-220). Mt. de Mescalones - Cero Cabillo Mottled Owl vocaliz. E 2000m @ 6:38 PM. Brite nite - lots of lt. from moon. At very end of transect clouds &amp; lt. rain after finished survey.</t>
+    <t>Pt. 1@ 6:08 PM recorded Pacific Screech Owl (#0-28). Chichara strong in foreground. Clear can see stars and moon.</t>
+  </si>
+  <si>
+    <t>Laughing Falcon recorded @6:25 PM. La Pluma could hear Mottled Owl in background @ 6:28 (tape # 180-220). Mt. de Mescalones - Cero Cabillo Mottled Owl vocaliz. E 2000m @ 6:38 PM. Brite nite - lots of lt. from moon. At very end of transect clouds &amp; lt. rain after finished survey.</t>
   </si>
   <si>
     <t>Recorded @5:57 PM two Pacific Screech Owls (end tape @ 251). One Mottled Owl vocalizing to S 1500 M @ 6:28 PM.</t>
@@ -297,16 +318,16 @@
     <t>Javiles</t>
   </si>
   <si>
-    <t>Ferrug. Pygmy Owl vocal: 5:01 PM 300 M S of pt 2; .6:11 PM 400 M E; 6:23 PM (recorded w/ Laughing Falcon- tape end #045); S 400 M of pt. 1(recorded tape end #57) .  Laughing Falcons vocalizing: @5:09 PM 500 M W of pt 2; 5:38 PM 800 M W of pt 2; 5:53 PM N of pt 2 other side of river. Mottled Owl vocaliz 6:19 PM 100 M SE. Can see stars.</t>
-  </si>
-  <si>
-    <t>Hear a Ferrug. Pygmy Owl @ 5:24 PM near Pt. 4. Recorded Ferrug. Pygmy Owl &amp; Laugh. Falcon - not a typical vocaliz.(# 112-135). Wind in tree tops occasionally. Ferrug.Pygmy Owl vocaliz. @ 6:38 PM 500 M E from pt. 1</t>
+    <t>Ferrug. Pygmy Owl vocal: 5:01 PM 300 M S of pt 2; .6:11 PM 400 M E; 6:23 PM (recorded w/ Laughing Falcon- tape end #045); S 400 M of pt. 1(recorded tape end #57) .  Laughing Falcons vocalizing: @5:09 PM 500 M W of pt 2; 5:38 PM 800 M W of pt 2; 5:53 PM N of pt 2 other side of river. Mottled Owl vocaliz 6:19 PM 100 M SE. Can see stars. San Vicente Volcano NW of Pt. 2 x river - has 2 peaks.</t>
+  </si>
+  <si>
+    <t>Hear a Ferrug. Pygmy Owl @ 5:24 PM near Pt. 4. At 6:09 pm recorded 2 Ferrug. Pygmy Owl &amp; Laugh. Falcon - not a typical vocaliz.(# 112-135). Wind in tree tops occasionally. Ferrug.Pygmy Owl vocaliz. @ 6:38 PM 500 M E from pt. 1.  No owls vocalized at survey points.</t>
   </si>
   <si>
     <t>Ferrug. Pygmy Owl @ 5:51 PM other side of river from Pt 2 &amp; Mottled Owl 200 M E of Pt 2 @ 6:16 PM. Recorded @ Pt 2: Chacha; Guacachio (#133-156); Ferrug. Pygmy Owl &amp; Laugh. Falcon (#157-185) @ 6:00 PM; Mottled Owl Pacific Screech Owl &amp; Ferrug. Pygmy Owl (# 186-257) @6:20 PM; tried to record Ferrug. Pygmy Owl (258-274). Recorded Spectacled Owl on way to Pt. 1 (#275-319).</t>
   </si>
   <si>
-    <t>Pt 1: Ferrug. Pygmy Owl to E and Laughing Falcons vocaliz. @ 6:13 PM. Ferrug. Pygmy Owl vocaliz to S - 1 short segment. Recorded Chacha @ 7:00 PM (#405-end of tape)</t>
+    <t>Pt 1: Ferrug. Pygmy Owl to E and2 Laughing Falcons vocaliz. @ 6:13 PM. At 6:45 pm Ferrug. Pygmy Owl vocaliz to S - 1 short segment. Recorded Chacha @ 7:00 PM (to #405-end of tape)</t>
   </si>
   <si>
     <t>VictorMaza</t>
@@ -315,9 +336,6 @@
     <t>At 5:58 PM ecorded Chaca negra.  At end of transect skies clear - can see the stars.</t>
   </si>
   <si>
-    <t>27.65</t>
-  </si>
-  <si>
     <t>Started very cloudy &amp; like walking in clouds &amp; then moved on and later returned. At end, lots of thunder &amp; lightening - lite rain on way to Fincona.</t>
   </si>
   <si>
@@ -333,10 +351,10 @@
     <t>Two Ferrug. Pygmy Owls E 100 m of Transect pt #5 (on way to start survey). Corta Cabeza @ 6:23 PM (recorded to # 185).</t>
   </si>
   <si>
-    <t>Recorded (to _ 232) @ pt. 1: Corta Cabeza, Ferrug. Pygmy Owl &amp; Spectacled Ow.  Spectacled owls were recored # 210-232 &amp; located: N 200 M, S 150 M. Ferrug. Pygmy Owl recorded #233-246.</t>
-  </si>
-  <si>
-    <t>Ferrug. Pygmy Owl @ 5:53 PM on way to pt. 1. At 6:15 (recorded to #400) &amp; 6:29 PM Ferrug. Pygmy Owl S 100 M. At 6:25 PM Spectacled Owl flew at Pt 1 river edge. April 27, 2009 fire passed thru the area.</t>
+    <t>Recorded (to # 232) @ pt. 1: Corta Cabeza, Ferrug. Pygmy Owl &amp; Spectacled Owl (6:00-6:03 pm).  Spectacled owls were recorded # 210-232 &amp; located: N 200 M &amp; S 150 M. Ferrug. Pygmy Owl recorded #233-246.</t>
+  </si>
+  <si>
+    <t>Ferrug. Pygmy Owl @ 5:53 PM on way to pt. 1. At 6:15 (recorded to #400) &amp; 6:29 PM Ferrug. Pygmy Owl S 100 M. At 6:25 PM Spectacled Owl flew at river edge (pt 1). April 27, 2009 fire passed thru the area.</t>
   </si>
   <si>
     <t>Rain @ end of silent listening Point EI-1.3 - ended transect work@ 7:14 PM.</t>
@@ -372,7 +390,7 @@
     <t>MAviles</t>
   </si>
   <si>
-    <t>Ferrug. Pygmy Owl 200 M S from Pt. 1 at 5:24, 6:13 &amp; 6:25 PM. At  Recorded laughing Falcon (end # 294).:30 recorded Corta Cabez &amp; Ferrug.Pygmy Owl (end # 273).</t>
+    <t>Ferrug. Pygmy Owl 200 M S from Pt. 1 at 5:24, 6:13 &amp; 6:25 PM. Recorded laughing Falcon (end # 294). At 6:30pm recorded Corta Cabez &amp; Ferrug.Pygmy Owl (end # 273).</t>
   </si>
   <si>
     <t>Ferrug. Pygmy Owl @5:58 PM. Recorded odd sound in forest @6:30 PM to # 353.</t>
@@ -438,7 +456,7 @@
     <t>Nery Fernando</t>
   </si>
   <si>
-    <t>Ferrug Pygmy Owls - four @ 5:40 PM 100M S (recorded # 60-111).  Two Ferrug Pygmy Owls SE 75 M.</t>
+    <t>Befor running transect on way to pt.1 hears ar pt,9 @ 5:05 PM a Ferrug. Pygmy Owl vocalizing and at pt 2 at 5:30 pm.  Ferrug Pygmy Owls - four @ 5:40 PM 100M S (recorded # 60-111).  Two Ferrug Pygmy Owls SE 75 M.</t>
   </si>
   <si>
     <t>Recorded at pt. N2.1 @ 5:55 PM (# 12-126) - Chino y Guacachio. Ferrug Pygmy Owl 100 M W of pt. N2.1 @ 5:40 PM. Recorded (# 127-140) Lora - Yellow Naped Parrot @ 6:00 PM.</t>
@@ -447,16 +465,16 @@
     <t>Ferrug Pygmy Owl @ 5:17 PM Pt. N1.10 E 100 M. Two Spectacled Owls @ 6:20 PM E 200 M. Ferrug Pygmy Owl @ 6:29 PM S 200 M.</t>
   </si>
   <si>
-    <t>Collared Forest Falcon @ 5:43 PM @ pt 1.  Recorded @ pt. 1 (#0-18) @ 5:50 PM. At 67/12/201705 PM recorded Collared Forest Falcon (#19-34). Recorded Chacha @ 6:20 PM (#34-52) @ pt. 1. Bar. in hpa.</t>
-  </si>
-  <si>
-    <t>At 6:00 PM Collared Forest Falcon about 200 m E. of enterance gate. Heard from gate one Mottled Owl below in Rio Nistepe about 200 M below in valley. From gate heard one Mottled Owl 350 M E. - Cero Cabillo.</t>
+    <t>Collared Forest Falcon @ 5:43 PM @ pt 1.  Recorded @ pt. 1 (#0-18) @ 5:50 PM. At 6:05 pm PM recorded Collared Forest Falcon (#19-34). Recorded Chacha @ 6:20 PM (#34-52) @ pt. 1. Bar. in hpa.</t>
+  </si>
+  <si>
+    <t>At 6:00 PM Collared Forest Falcon about 200 m E. of enterance gate. Heard from gate one Mottled Owl below in Rio Nistepe about 200 M S below in valley. From gate heard one Mottled Owl 350 M E. - Cero Cabillo.</t>
   </si>
   <si>
     <t>Gonzala Reys</t>
   </si>
   <si>
-    <t>Ferg Pygmy Owl @ 5:25 PM SE 140 M. &amp; @ 6:03 PM. Also a Collared Forest Falcon. Gato Zonte @ 6:18 PM S of Pt. 1. At 6:21 PM Ferg Pygmy Owl other side of river. Recorded Collared ForestFalcon, Pucuyo &amp; Ferug Pygmy Owl @ 6:26 PM (#0-18) 50 M SE of pt 1.</t>
+    <t>Ferg Pygmy Owl @ 5:25 PM SE 140 M &amp; at 6:03 PM.Ferg Pyg Owl &amp; Collared Forest Falcon. Gato Zonte @ 6:18 PM S of Pt. 1. At 6:21 PM Ferg Pygmy Owl other side of river. Recorded Collared ForestFalcon, Pucuyo &amp; Ferug Pygmy Owl @ 6:26 PM (#0-18) 50 M SE of pt 1.</t>
   </si>
   <si>
     <t>Collared Forest Falcon &amp; Ferr. Pygmy Owl (NE 400 M) @ 6:09 PM.</t>
@@ -819,9 +837,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1011,7 +1028,7 @@
         <v>0.77291666666666703</v>
       </c>
       <c r="H5" s="3">
-        <v>0.8125</v>
+        <v>0.93888888888888899</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -1181,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -1204,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1228,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1266,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1304,10 +1321,10 @@
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1315,7 +1332,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1333,7 +1350,7 @@
         <v>0.76736111111111105</v>
       </c>
       <c r="H13" s="3">
-        <v>0.89722222222222203</v>
+        <v>0.89930555555555602</v>
       </c>
       <c r="I13">
         <v>25</v>
@@ -1345,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1383,10 +1400,10 @@
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1403,7 +1420,7 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1">
         <v>37747</v>
@@ -1424,10 +1441,10 @@
         <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1444,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1">
         <v>37748</v>
@@ -1468,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1482,10 +1499,10 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1">
         <v>37749</v>
@@ -1509,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1517,16 +1534,16 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1">
         <v>37343</v>
@@ -1548,6 +1565,9 @@
       </c>
       <c r="L18" t="s">
         <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1555,16 +1575,16 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1">
         <v>37344</v>
@@ -1623,10 +1643,10 @@
         <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1664,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1681,7 +1701,7 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -1705,10 +1725,10 @@
         <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1746,10 +1766,10 @@
         <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1757,13 +1777,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
@@ -1787,10 +1807,10 @@
         <v>16</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1798,13 +1818,13 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
@@ -1825,13 +1845,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1839,13 +1859,13 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1">
         <v>38432</v>
@@ -1869,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1877,13 +1897,13 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1910,7 +1930,7 @@
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1989,7 +2009,7 @@
         <v>28</v>
       </c>
       <c r="M29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2003,7 +2023,7 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -2030,7 +2050,7 @@
         <v>28</v>
       </c>
       <c r="M30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2071,7 +2091,7 @@
         <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2109,10 +2129,10 @@
         <v>16</v>
       </c>
       <c r="L32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2150,10 +2170,10 @@
         <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2191,7 +2211,10 @@
         <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="M34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2229,7 +2252,10 @@
         <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="M35" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2237,16 +2263,16 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F36" s="1">
         <v>39166</v>
@@ -2267,7 +2293,10 @@
         <v>16</v>
       </c>
       <c r="L36" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="M36" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2275,13 +2304,13 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -2305,7 +2334,10 @@
         <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="M37" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2319,7 +2351,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2340,13 +2372,13 @@
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="L38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M38" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2425,7 +2457,7 @@
         <v>28</v>
       </c>
       <c r="M40" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2442,7 +2474,7 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F41" s="1">
         <v>39181</v>
@@ -2466,7 +2498,7 @@
         <v>28</v>
       </c>
       <c r="M41" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2483,7 +2515,7 @@
         <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="1">
         <v>39182</v>
@@ -2507,7 +2539,7 @@
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -2524,7 +2556,7 @@
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1">
         <v>39183</v>
@@ -2548,7 +2580,7 @@
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2565,7 +2597,7 @@
         <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F44" s="1">
         <v>39184</v>
@@ -2589,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2597,16 +2629,16 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F45" s="1">
         <v>39516</v>
@@ -2627,10 +2659,10 @@
         <v>16</v>
       </c>
       <c r="L45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M45" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2638,13 +2670,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E46" t="s">
         <v>16</v>
@@ -2668,7 +2700,7 @@
         <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -2709,7 +2741,7 @@
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -2750,7 +2782,7 @@
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -2764,7 +2796,7 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
@@ -2791,7 +2823,7 @@
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -2832,7 +2864,7 @@
         <v>28</v>
       </c>
       <c r="M50" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -2846,10 +2878,10 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F51" s="1">
         <v>39531</v>
@@ -2873,7 +2905,7 @@
         <v>28</v>
       </c>
       <c r="M51" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2914,7 +2946,7 @@
         <v>28</v>
       </c>
       <c r="M52" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -2931,7 +2963,7 @@
         <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F53" s="1">
         <v>39533</v>
@@ -2955,7 +2987,7 @@
         <v>28</v>
       </c>
       <c r="M53" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -2996,7 +3028,7 @@
         <v>28</v>
       </c>
       <c r="M54" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -3004,13 +3036,13 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -3034,10 +3066,10 @@
         <v>16</v>
       </c>
       <c r="L55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M55" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -3077,9 +3109,6 @@
       <c r="L56" t="s">
         <v>17</v>
       </c>
-      <c r="M56" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -3092,13 +3121,13 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="1">
-        <v>42859</v>
+        <v>39937</v>
       </c>
       <c r="G57" s="3">
         <v>0.77291666666666703</v>
@@ -3119,7 +3148,7 @@
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -3133,13 +3162,13 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F58" s="1">
-        <v>42866</v>
+        <v>39944</v>
       </c>
       <c r="G58" s="3">
         <v>0.75972222222222197</v>
@@ -3160,7 +3189,7 @@
         <v>28</v>
       </c>
       <c r="M58" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -3201,7 +3230,7 @@
         <v>28</v>
       </c>
       <c r="M59" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3218,7 +3247,7 @@
         <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" s="1">
         <v>39946</v>
@@ -3242,7 +3271,7 @@
         <v>28</v>
       </c>
       <c r="M60" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -3283,7 +3312,7 @@
         <v>28</v>
       </c>
       <c r="M61" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -3324,7 +3353,7 @@
         <v>28</v>
       </c>
       <c r="M62" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -3359,13 +3388,13 @@
         <v>100</v>
       </c>
       <c r="K63" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="L63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M63" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3373,13 +3402,13 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
         <v>16</v>
@@ -3403,7 +3432,7 @@
         <v>16</v>
       </c>
       <c r="L64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -3411,13 +3440,13 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E65" t="s">
         <v>16</v>
@@ -3441,10 +3470,10 @@
         <v>16</v>
       </c>
       <c r="L65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M65" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -3458,10 +3487,10 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F66" s="1">
         <v>40287</v>
@@ -3482,10 +3511,10 @@
         <v>16</v>
       </c>
       <c r="L66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M66" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -3502,7 +3531,7 @@
         <v>27</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F67" s="1">
         <v>40288</v>
@@ -3523,10 +3552,10 @@
         <v>16</v>
       </c>
       <c r="L67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M67" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -3543,7 +3572,7 @@
         <v>31</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F68" s="1">
         <v>40289</v>
@@ -3567,7 +3596,7 @@
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -3581,10 +3610,10 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F69" s="1">
         <v>40290</v>
@@ -3593,10 +3622,10 @@
         <v>0.77083333333333304</v>
       </c>
       <c r="H69" s="3">
-        <v>0.87638888888888899</v>
+        <v>0.87986111111111098</v>
       </c>
       <c r="I69">
-        <v>705</v>
+        <v>75</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3608,7 +3637,7 @@
         <v>28</v>
       </c>
       <c r="M69" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -3616,16 +3645,16 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F70" s="1">
         <v>40616</v>
@@ -3649,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="M70" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -3657,16 +3686,16 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F71" s="1">
         <v>40618</v>
@@ -3690,7 +3719,7 @@
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -3698,16 +3727,16 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F72" s="1">
         <v>40619</v>
@@ -3769,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="M73" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -3783,7 +3812,7 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
         <v>16</v>
@@ -3859,7 +3888,7 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
@@ -3883,10 +3912,10 @@
         <v>16</v>
       </c>
       <c r="L76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M76" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -3924,10 +3953,10 @@
         <v>16</v>
       </c>
       <c r="L77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M77" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -3944,7 +3973,7 @@
         <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F78" s="1">
         <v>40632</v>
@@ -3965,10 +3994,10 @@
         <v>16</v>
       </c>
       <c r="L78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M78" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -4006,10 +4035,10 @@
         <v>16</v>
       </c>
       <c r="L79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M79" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -4050,7 +4079,7 @@
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -4058,16 +4087,16 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F81" s="1">
         <v>40987</v>
@@ -4088,10 +4117,10 @@
         <v>16</v>
       </c>
       <c r="L81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M81" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -4099,16 +4128,16 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F82" s="1">
         <v>40989</v>
@@ -4129,10 +4158,10 @@
         <v>16</v>
       </c>
       <c r="L82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M82" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -4140,16 +4169,16 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" t="s">
         <v>137</v>
-      </c>
-      <c r="E83" t="s">
-        <v>131</v>
       </c>
       <c r="F83" s="1">
         <v>40990</v>
@@ -4170,7 +4199,7 @@
         <v>16</v>
       </c>
       <c r="L83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -4208,10 +4237,10 @@
         <v>16</v>
       </c>
       <c r="L84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M84" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -4249,10 +4278,10 @@
         <v>16</v>
       </c>
       <c r="L85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M85" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -4290,10 +4319,10 @@
         <v>16</v>
       </c>
       <c r="L86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M86" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -4366,10 +4395,10 @@
         <v>16</v>
       </c>
       <c r="L88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M88" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -4407,10 +4436,10 @@
         <v>16</v>
       </c>
       <c r="L89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M89" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -4427,7 +4456,7 @@
         <v>31</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F90" s="1">
         <v>41386</v>
@@ -4451,7 +4480,7 @@
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -4492,10 +4521,11 @@
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/raw_data/Survey_Table.xlsx
+++ b/data/raw_data/Survey_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maedward\Desktop\elsavadorowls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maedward\Desktop\elsavadorowls\TableExports\database_07_30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -832,11 +832,12 @@
   <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.21875" style="2" bestFit="1" customWidth="1"/>
   </cols>
